--- a/UltimoJJ analysis report.xlsx
+++ b/UltimoJJ analysis report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ultimoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CECDAD-740B-40C0-89F5-EDD5C55EA1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2AFBF-1F8A-4BC3-8912-4103F6D9A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="204" yWindow="180" windowWidth="22836" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="130">
   <si>
     <t>UltimoJJ analysis report as on 13.03.2024</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>79.03%</t>
+  </si>
+  <si>
+    <t>55.88%</t>
   </si>
   <si>
     <t>16 lbs/1</t>
@@ -334,6 +337,12 @@
   </si>
   <si>
     <t>25/03/2024 - S1</t>
+  </si>
+  <si>
+    <t>25/03/2024 - S2</t>
+  </si>
+  <si>
+    <t>25/03/2024 - S3</t>
   </si>
   <si>
     <t>M/c No.</t>
@@ -1081,21 +1090,6 @@
     <xf numFmtId="169" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,10 +1099,25 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,14 +1228,14 @@
                   <c:v>84.521739130434781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.625</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5033-4914-9AE5-BC597FFDCE16}"/>
+              <c16:uniqueId val="{00000000-5E4E-4861-8A46-EEEFE18D591F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1329,6 +1338,1386 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stop %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trends!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Trends!$E$4:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25/03/2024 - S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trends!$F$5:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>28.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.93</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-332C-49C8-9253-717889291D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Idle %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trends!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Trends!$H$4:$H$50</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25/03/2024 - S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trends!$I$5:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-442F-4814-B426-15B374B4ED58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Eb/100spdle/hour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trends!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.74</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Trends!$K$4:$K$50</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25/03/2024 - S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trends!$L$5:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25.54</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-460B-4503-8B33-3E67B5DF4B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1415,14 +2804,14 @@
                   <c:v>12.826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.56</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39C4-4A31-A3F6-7E7329FF1E08}"/>
+              <c16:uniqueId val="{00000000-8FAE-49AA-A547-89883A481D38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1611,14 +3000,14 @@
                   <c:v>2.8956521739130441</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2.57</c:v>
+                  <c:v>0.54444444444444451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DB2-4033-995F-70AF9CD91FA8}"/>
+              <c16:uniqueId val="{00000000-813D-40E6-A257-447161DF8B67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1807,14 +3196,14 @@
                   <c:v>242.95652173913044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.83333333333331</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8066-43BC-8C72-94322BA065FD}"/>
+              <c16:uniqueId val="{00000000-B05F-422E-BB14-276F655D0FB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2003,14 +3392,14 @@
                   <c:v>82.208695652173915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.291666666666664</c:v>
+                  <c:v>4.6791666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7DD-428A-9699-7394F8E5343F}"/>
+              <c16:uniqueId val="{00000000-AB48-4814-B8C4-A7CEAC908E92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2161,7 +3550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.035</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2284,91 +3673,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.739999999999995</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.314999999999998</c:v>
+                  <c:v>77.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.460000000000008</c:v>
+                  <c:v>21.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.12</c:v>
+                  <c:v>57.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.459999999999994</c:v>
+                  <c:v>41.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.259999999999991</c:v>
+                  <c:v>80.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.734999999999999</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.25</c:v>
+                  <c:v>42.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.005000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.47999999999999</c:v>
+                  <c:v>15.57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.474999999999994</c:v>
+                  <c:v>25.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.765000000000001</c:v>
+                  <c:v>53.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73.734999999999999</c:v>
+                  <c:v>47.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.56</c:v>
+                  <c:v>53.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>46.22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.564999999999998</c:v>
+                  <c:v>64.42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.240000000000009</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.62</c:v>
+                  <c:v>35.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78.414999999999992</c:v>
+                  <c:v>66.95</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.064999999999998</c:v>
+                  <c:v>55.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.259999999999991</c:v>
+                  <c:v>25.11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.314999999999998</c:v>
+                  <c:v>46.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78.319999999999993</c:v>
+                  <c:v>24.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.094999999999999</c:v>
+                  <c:v>32.79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80.7</c:v>
+                  <c:v>67.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2381,7 +3770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-212C-4AC7-B79D-72E7625BFCDB}"/>
+              <c16:uniqueId val="{00000000-B43D-4742-9A6A-7340B4ED3018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2625,67 +4014,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>584.06039999999996</c:v>
+                  <c:v>14.13496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>664.26147000000003</c:v>
+                  <c:v>11.750940000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1696.5246000000002</c:v>
+                  <c:v>24.446400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1254.95</c:v>
+                  <c:v>18.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1215.6600000000001</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>508.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2195.1</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1556.5238399999998</c:v>
+                  <c:v>8.7721199999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1558.4212799999998</c:v>
+                  <c:v>11.752800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1533.1669199999997</c:v>
+                  <c:v>10.096079999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>731.75339999999994</c:v>
+                  <c:v>10.924439999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>874.04723999999999</c:v>
+                  <c:v>14.577719999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1149.47</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1226.03</c:v>
+                  <c:v>7.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1148.8699999999999</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1176.6600000000001</c:v>
+                  <c:v>13.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1206.26</c:v>
+                  <c:v>6.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1215.56</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1161.42</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>392.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -2695,7 +4084,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAD2-4A18-9FFB-0CF236DD0A64}"/>
+              <c16:uniqueId val="{00000000-A54B-4C4C-9720-33AB526649FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2939,74 +4328,74 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>80.12</c:v>
+                  <c:v>57.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.459999999999994</c:v>
+                  <c:v>41.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.259999999999991</c:v>
+                  <c:v>80.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.734999999999999</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.25</c:v>
+                  <c:v>42.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.005000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.47999999999999</c:v>
+                  <c:v>15.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.474999999999994</c:v>
+                  <c:v>25.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.765000000000001</c:v>
+                  <c:v>53.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.734999999999999</c:v>
+                  <c:v>47.57</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>71.56</c:v>
+                  <c:v>53.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.564999999999998</c:v>
+                  <c:v>64.42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79.240000000000009</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.62</c:v>
+                  <c:v>35.22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.414999999999992</c:v>
+                  <c:v>66.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.064999999999998</c:v>
+                  <c:v>55.13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.259999999999991</c:v>
+                  <c:v>25.11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.314999999999998</c:v>
+                  <c:v>46.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.319999999999993</c:v>
+                  <c:v>24.35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61BC-4732-B2BE-9B0C6325FF52}"/>
+              <c16:uniqueId val="{00000000-71EC-437F-9C19-EE4A35D92E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3170,9 +4559,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Trends!$B$4:$B$19</c:f>
+              <c:f>Trends!$B$4:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>19/03/2024 - S1</c:v>
                 </c:pt>
@@ -3220,16 +4609,109 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24/03/2024 - S3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25/03/2024 - S1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25/03/2024 - S2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$C$5:$C$19</c:f>
+              <c:f>Trends!$C$5:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3.1</c:v>
                 </c:pt>
@@ -3274,13 +4756,106 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23D9-41F4-AFE9-722C40039A7A}"/>
+              <c16:uniqueId val="{00000000-9DDD-4D9F-BBD8-9D33AF40D4F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3423,7 +4998,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4582583" cy="2700000"/>
+    <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
@@ -3485,7 +5060,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4561416" cy="2700000"/>
+    <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
@@ -3640,7 +5215,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9239250" cy="2700000"/>
+    <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9">
@@ -3659,6 +5234,99 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3966,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H11" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4176,35 +5844,35 @@
       </c>
       <c r="Z8" s="20">
         <f>J28</f>
-        <v>107.625</v>
+        <v>1.25</v>
       </c>
       <c r="AA8" t="s">
         <v>8</v>
       </c>
       <c r="AB8" s="20">
         <f>J30</f>
-        <v>12.56</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="AC8" t="s">
         <v>8</v>
       </c>
       <c r="AD8" s="95">
         <f>I31</f>
-        <v>2.57</v>
+        <v>0.54444444444444451</v>
       </c>
       <c r="AE8" t="s">
         <v>8</v>
       </c>
       <c r="AF8" s="20">
         <f>J33</f>
-        <v>257.83333333333331</v>
+        <v>4.5</v>
       </c>
       <c r="AG8" t="s">
         <v>8</v>
       </c>
       <c r="AH8" s="20">
         <f>J32</f>
-        <v>52.291666666666664</v>
+        <v>4.6791666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4213,7 +5881,7 @@
       </c>
       <c r="C9" s="16">
         <f>AVERAGE(C23,F23,I23)</f>
-        <v>24</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>9</v>
@@ -4258,7 +5926,7 @@
       </c>
       <c r="C11" s="21">
         <f>(C23*C24+F23*F24+I23*I24)/(C23+F23+I23)</f>
-        <v>0.81174861111111118</v>
+        <v>0.72497384615384619</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>12</v>
@@ -4279,7 +5947,7 @@
       </c>
       <c r="C12" s="32">
         <f>C26+F26+I26</f>
-        <v>31926.120000000003</v>
+        <v>292.94000000000011</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>13</v>
@@ -4322,7 +5990,7 @@
       </c>
       <c r="C14" s="16">
         <f>C28+F28+I28</f>
-        <v>7359</v>
+        <v>4806</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>15</v>
@@ -4343,7 +6011,7 @@
       </c>
       <c r="C15" s="28">
         <f>C14*100/(C9*112*24)</f>
-        <v>11.40718005952381</v>
+        <v>8.252060439560438</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>16</v>
@@ -4364,7 +6032,7 @@
       </c>
       <c r="C16" s="16">
         <f>C30+F30+I30</f>
-        <v>944</v>
+        <v>635</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>17</v>
@@ -4385,7 +6053,7 @@
       </c>
       <c r="C17" s="17">
         <f>AVERAGE(C31,F31,I31)</f>
-        <v>2.8496618357487922</v>
+        <v>2.1744766505636073</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>18</v>
@@ -4406,7 +6074,7 @@
       </c>
       <c r="C18" s="16">
         <f>C32+F32+I32</f>
-        <v>4742.5</v>
+        <v>3599.8</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>19</v>
@@ -4427,7 +6095,7 @@
       </c>
       <c r="C19" s="16">
         <f>C33+F33+I33</f>
-        <v>17870</v>
+        <v>11790</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>20</v>
@@ -4513,7 +6181,7 @@
         <v>9</v>
       </c>
       <c r="I23" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="23" t="s">
@@ -4542,12 +6210,12 @@
       <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="5">
-        <v>0.85524</v>
+      <c r="I24" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" s="24">
         <v>19.411999999999999</v>
@@ -4556,21 +6224,21 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="35">
         <v>18</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" s="35">
         <v>18</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" s="35">
         <v>18.095238095238091</v>
@@ -4585,21 +6253,21 @@
         <v>13</v>
       </c>
       <c r="C26" s="33">
-        <v>16406.2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="33">
-        <v>15519.92</v>
+        <v>0</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="33">
-        <v>0</v>
+        <v>292.94000000000011</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="23"/>
@@ -4660,14 +6328,14 @@
         <v>15</v>
       </c>
       <c r="I28" s="12">
-        <v>2583</v>
+        <v>30</v>
       </c>
       <c r="J28" s="9">
         <f>I28/$C$23</f>
-        <v>107.625</v>
+        <v>1.25</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L28" s="24">
         <v>24.02</v>
@@ -4696,7 +6364,7 @@
       </c>
       <c r="I29" s="29">
         <f>I28*100/(I23*112*8)</f>
-        <v>11.53125</v>
+        <v>0.18601190476190477</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="23"/>
@@ -4728,11 +6396,11 @@
         <v>17</v>
       </c>
       <c r="I30" s="12">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="J30" s="9">
         <f>I30/$I$23</f>
-        <v>12.56</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="26"/>
@@ -4757,7 +6425,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="11">
-        <v>2.57</v>
+        <v>0.54444444444444451</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="23"/>
@@ -4791,11 +6459,11 @@
         <v>19</v>
       </c>
       <c r="I32" s="12">
-        <v>1255</v>
+        <v>112.3</v>
       </c>
       <c r="J32" s="9">
         <f>I32/$C$23</f>
-        <v>52.291666666666664</v>
+        <v>4.6791666666666663</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="26"/>
@@ -4825,11 +6493,11 @@
         <v>20</v>
       </c>
       <c r="I33" s="12">
-        <v>6188</v>
+        <v>108</v>
       </c>
       <c r="J33" s="9">
         <f>I33/$C$23</f>
-        <v>257.83333333333331</v>
+        <v>4.5</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="26"/>
@@ -4900,7 +6568,7 @@
     <row r="50" spans="5:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.3">
@@ -5012,16 +6680,16 @@
     <row r="2" spans="1:57" s="45" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>7</v>
@@ -5077,7 +6745,7 @@
     <row r="3" spans="1:57" s="45" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="47">
         <f>C14+Q23+T23+W23+Z23+SUM(AH10:AH20)+SUM(AM10:AM20)+SUM(AR10:AR20)+SUM(I9:I11)</f>
@@ -5146,7 +6814,7 @@
     <row r="4" spans="1:57" s="45" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="49">
         <f>N23</f>
@@ -5215,7 +6883,7 @@
     <row r="5" spans="1:57" s="45" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="49">
         <f>IFERROR(C3/C4,0)</f>
@@ -5341,23 +7009,23 @@
     </row>
     <row r="7" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
-      <c r="B7" s="111" t="s">
-        <v>36</v>
+      <c r="B7" s="104" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
       <c r="F7" s="98"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="111" t="s">
-        <v>37</v>
+      <c r="H7" s="104" t="s">
+        <v>38</v>
       </c>
       <c r="I7" s="97"/>
       <c r="J7" s="97"/>
       <c r="K7" s="98"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="111" t="s">
-        <v>38</v>
+      <c r="M7" s="104" t="s">
+        <v>39</v>
       </c>
       <c r="N7" s="97"/>
       <c r="O7" s="97"/>
@@ -5393,8 +7061,8 @@
       <c r="AS7" s="97"/>
       <c r="AT7" s="98"/>
       <c r="AU7" s="51"/>
-      <c r="AV7" s="112" t="s">
-        <v>39</v>
+      <c r="AV7" s="105" t="s">
+        <v>40</v>
       </c>
       <c r="AW7" s="97"/>
       <c r="AX7" s="97"/>
@@ -5408,125 +7076,125 @@
     <row r="8" spans="1:57" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="51"/>
-      <c r="M8" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="114" t="s">
+      <c r="M8" s="106" t="s">
         <v>42</v>
+      </c>
+      <c r="N8" s="108" t="s">
+        <v>43</v>
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="98"/>
-      <c r="Q8" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="108" t="s">
+      <c r="Q8" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="109"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="108" t="s">
+      <c r="R8" s="110"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="108" t="s">
+      <c r="U8" s="110"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="115" t="s">
+      <c r="X8" s="110"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="AD8" s="115" t="s">
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="115" t="s">
+      <c r="AD8" s="112" t="s">
         <v>49</v>
       </c>
+      <c r="AE8" s="112" t="s">
+        <v>50</v>
+      </c>
       <c r="AF8" s="51"/>
-      <c r="AG8" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="110"/>
+      <c r="AG8" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="111"/>
       <c r="AK8" s="51"/>
-      <c r="AL8" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="110"/>
+      <c r="AL8" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="111"/>
       <c r="AP8" s="51"/>
-      <c r="AQ8" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="110"/>
+      <c r="AQ8" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="111"/>
       <c r="AU8" s="51"/>
       <c r="AV8" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW8" s="104" t="str">
+        <v>42</v>
+      </c>
+      <c r="AW8" s="115" t="str">
         <f>$M$10</f>
         <v xml:space="preserve">      8 lbs/1 CRX</v>
       </c>
-      <c r="AX8" s="104" t="str">
+      <c r="AX8" s="115" t="str">
         <f>$M$11</f>
         <v xml:space="preserve">       14 lbs/1 CRX</v>
       </c>
-      <c r="AY8" s="104" t="str">
+      <c r="AY8" s="115" t="str">
         <f>$M$12</f>
         <v xml:space="preserve">        16lbs/1CRT</v>
       </c>
-      <c r="AZ8" s="104" t="str">
+      <c r="AZ8" s="115" t="str">
         <f>$M$13</f>
         <v xml:space="preserve">22/1CRT </v>
       </c>
-      <c r="BA8" s="104">
+      <c r="BA8" s="115">
         <f>$M$14</f>
         <v>0</v>
       </c>
-      <c r="BB8" s="107">
+      <c r="BB8" s="113">
         <f>$M$15</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="107">
+      <c r="BC8" s="113">
         <f>$M$16</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="104">
+      <c r="BD8" s="115">
         <f>$M$17</f>
         <v>0</v>
       </c>
@@ -5534,7 +7202,7 @@
     <row r="9" spans="1:57" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="58">
         <v>19</v>
@@ -5551,7 +7219,7 @@
       </c>
       <c r="G9" s="51"/>
       <c r="H9" s="57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="60">
         <v>51</v>
@@ -5563,105 +7231,105 @@
         <v>26</v>
       </c>
       <c r="L9" s="51"/>
-      <c r="M9" s="105"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="R9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="61" t="s">
+      <c r="S9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="U9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="61" t="s">
+      <c r="V9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="61" t="s">
+      <c r="X9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="61" t="s">
+      <c r="Y9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="61" t="s">
+      <c r="AA9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="61" t="s">
-        <v>31</v>
-      </c>
       <c r="AB9" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
+        <v>33</v>
+      </c>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
       <c r="AF9" s="51"/>
       <c r="AG9" s="62"/>
       <c r="AH9" s="61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI9" s="61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ9" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK9" s="51"/>
       <c r="AL9" s="62"/>
       <c r="AM9" s="61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AO9" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AP9" s="51"/>
       <c r="AQ9" s="62"/>
       <c r="AR9" s="61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS9" s="61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AT9" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AU9" s="51"/>
       <c r="AV9" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="105"/>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="105"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="105"/>
-      <c r="BC9" s="105"/>
-      <c r="BD9" s="105"/>
+        <v>41</v>
+      </c>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
     </row>
     <row r="10" spans="1:57" s="56" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="58">
         <v>5</v>
@@ -5678,7 +7346,7 @@
       </c>
       <c r="G10" s="51"/>
       <c r="H10" s="57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="60">
         <v>5</v>
@@ -5691,7 +7359,7 @@
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="65">
         <v>0.55600000000000005</v>
@@ -5752,7 +7420,7 @@
       </c>
       <c r="AF10" s="51"/>
       <c r="AG10" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH10" s="58">
         <v>1</v>
@@ -5765,7 +7433,7 @@
       </c>
       <c r="AK10" s="51"/>
       <c r="AL10" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM10" s="58">
         <v>1</v>
@@ -5778,7 +7446,7 @@
       </c>
       <c r="AP10" s="51"/>
       <c r="AQ10" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR10" s="58">
         <v>1</v>
@@ -5791,7 +7459,7 @@
       </c>
       <c r="AU10" s="51"/>
       <c r="AV10" s="69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AW10" s="67">
         <f>IFERROR(VLOOKUP($AW$8,$B$16:$F$22,2,0),0)</f>
@@ -5829,7 +7497,7 @@
     <row r="11" spans="1:57" s="56" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
       <c r="B11" s="57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="58">
         <v>8</v>
@@ -5846,7 +7514,7 @@
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="60">
         <v>15</v>
@@ -5859,7 +7527,7 @@
       </c>
       <c r="L11" s="51"/>
       <c r="M11" s="64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N11" s="65">
         <v>1.33</v>
@@ -5920,7 +7588,7 @@
       </c>
       <c r="AF11" s="51"/>
       <c r="AG11" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH11" s="58">
         <v>3</v>
@@ -5933,7 +7601,7 @@
       </c>
       <c r="AK11" s="51"/>
       <c r="AL11" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM11" s="58">
         <v>2</v>
@@ -5946,7 +7614,7 @@
       </c>
       <c r="AP11" s="51"/>
       <c r="AQ11" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AR11" s="58">
         <v>1</v>
@@ -5957,7 +7625,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="51"/>
       <c r="AV11" s="69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AW11" s="67">
         <f t="shared" ref="AW11:BD11" si="4">IFERROR(VLOOKUP(AW8,$B$16:$F$22,3,0),0)</f>
@@ -5996,7 +7664,7 @@
     <row r="12" spans="1:57" s="53" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
       <c r="B12" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="58">
         <v>32</v>
@@ -6018,7 +7686,7 @@
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="65">
         <v>9.7070000000000007</v>
@@ -6079,7 +7747,7 @@
       </c>
       <c r="AF12" s="51"/>
       <c r="AG12" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH12" s="58">
         <v>7</v>
@@ -6092,7 +7760,7 @@
       </c>
       <c r="AK12" s="51"/>
       <c r="AL12" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM12" s="58">
         <v>5</v>
@@ -6105,14 +7773,14 @@
       </c>
       <c r="AP12" s="51"/>
       <c r="AQ12" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR12" s="58"/>
       <c r="AS12" s="58"/>
       <c r="AT12" s="58"/>
       <c r="AU12" s="51"/>
       <c r="AV12" s="69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AW12" s="67">
         <f t="shared" ref="AW12:BD12" si="5">IFERROR(VLOOKUP(AW8,$B$16:$F$22,4,0),0)</f>
@@ -6150,7 +7818,7 @@
     <row r="13" spans="1:57" s="56" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
       <c r="B13" s="57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="58">
         <v>8</v>
@@ -6172,7 +7840,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N13" s="65">
         <v>5.6239999999999997</v>
@@ -6233,14 +7901,14 @@
       </c>
       <c r="AF13" s="51"/>
       <c r="AG13" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH13" s="58"/>
       <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="51"/>
       <c r="AL13" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM13" s="58">
         <v>2</v>
@@ -6253,7 +7921,7 @@
       </c>
       <c r="AP13" s="51"/>
       <c r="AQ13" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR13" s="58">
         <v>2</v>
@@ -6266,7 +7934,7 @@
       </c>
       <c r="AU13" s="51"/>
       <c r="AV13" s="69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AW13" s="67">
         <f t="shared" ref="AW13:BD13" si="6">IFERROR(VLOOKUP(AW8,$B$16:$F$22,5,0),0)</f>
@@ -6353,7 +8021,7 @@
       </c>
       <c r="AF14" s="51"/>
       <c r="AG14" s="57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH14" s="58">
         <v>3</v>
@@ -6366,7 +8034,7 @@
       </c>
       <c r="AK14" s="51"/>
       <c r="AL14" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM14" s="58">
         <v>1</v>
@@ -6379,7 +8047,7 @@
       </c>
       <c r="AP14" s="51"/>
       <c r="AQ14" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AR14" s="58">
         <v>1</v>
@@ -6390,7 +8058,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="51"/>
       <c r="AV14" s="69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AW14" s="67">
         <f t="shared" ref="AW14:BD14" si="7">IFERROR(VLOOKUP(AW8,$M$10:$AE$22,17,0),0)</f>
@@ -6428,19 +8096,19 @@
     <row r="15" spans="1:57" s="56" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
@@ -6478,7 +8146,7 @@
       </c>
       <c r="AF15" s="51"/>
       <c r="AG15" s="57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" s="58">
         <v>4</v>
@@ -6501,7 +8169,7 @@
       <c r="AT15" s="58"/>
       <c r="AU15" s="51"/>
       <c r="AV15" s="69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AW15" s="67">
         <f t="shared" ref="AW15:BD15" si="8">IFERROR(VLOOKUP(AW8,$M$10:$AE$22,18,0),0)</f>
@@ -6609,7 +8277,7 @@
       <c r="AT16" s="58"/>
       <c r="AU16" s="51"/>
       <c r="AV16" s="69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW16" s="67">
         <f t="shared" ref="AW16:BD16" si="14">IFERROR(VLOOKUP(AW8,$M$10:$AE$22,19,0),0)</f>
@@ -6717,7 +8385,7 @@
       <c r="AT17" s="58"/>
       <c r="AU17" s="51"/>
       <c r="AV17" s="69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW17" s="67">
         <f t="shared" ref="AW17:BD17" si="15">IF(AW14=0,0,SUM($I$11:$K$11)/SUM($N$23:$P$23))</f>
@@ -6825,7 +8493,7 @@
       <c r="AT18" s="58"/>
       <c r="AU18" s="51"/>
       <c r="AV18" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AW18" s="67">
         <f t="shared" ref="AW18:BD18" si="16">IF(AW14=0,0,SUM($I$9:$K$10)/SUM($N$23:$P$23))</f>
@@ -6933,7 +8601,7 @@
       <c r="AT19" s="58"/>
       <c r="AU19" s="51"/>
       <c r="AV19" s="76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AW19" s="77">
         <f t="shared" ref="AW19:BD19" si="17">SUM(AW10:AW18)</f>
@@ -7041,7 +8709,7 @@
       <c r="AT20" s="58"/>
       <c r="AU20" s="51"/>
       <c r="AV20" s="76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AW20" s="78">
         <f>(IF(AW14=0,0,(SUM(N10:P10)*AW19)))</f>
@@ -7133,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="51"/>
-      <c r="AG21" s="106" t="s">
+      <c r="AG21" s="114" t="s">
         <v>7</v>
       </c>
       <c r="AH21" s="97"/>
@@ -7143,7 +8811,7 @@
         <v>51</v>
       </c>
       <c r="AK21" s="51"/>
-      <c r="AL21" s="106" t="s">
+      <c r="AL21" s="114" t="s">
         <v>7</v>
       </c>
       <c r="AM21" s="97"/>
@@ -7153,7 +8821,7 @@
         <v>33</v>
       </c>
       <c r="AP21" s="51"/>
-      <c r="AQ21" s="106" t="s">
+      <c r="AQ21" s="114" t="s">
         <v>7</v>
       </c>
       <c r="AR21" s="97"/>
@@ -7235,8 +8903,8 @@
         <v>0</v>
       </c>
       <c r="AF22" s="51"/>
-      <c r="AG22" s="106" t="s">
-        <v>78</v>
+      <c r="AG22" s="114" t="s">
+        <v>79</v>
       </c>
       <c r="AH22" s="97"/>
       <c r="AI22" s="98"/>
@@ -7245,8 +8913,8 @@
         <v>1.0057584602035181</v>
       </c>
       <c r="AK22" s="51"/>
-      <c r="AL22" s="106" t="s">
-        <v>78</v>
+      <c r="AL22" s="114" t="s">
+        <v>79</v>
       </c>
       <c r="AM22" s="97"/>
       <c r="AN22" s="98"/>
@@ -7255,8 +8923,8 @@
         <v>0.65078488601404116</v>
       </c>
       <c r="AP22" s="51"/>
-      <c r="AQ22" s="106" t="s">
-        <v>78</v>
+      <c r="AQ22" s="114" t="s">
+        <v>79</v>
       </c>
       <c r="AR22" s="97"/>
       <c r="AS22" s="98"/>
@@ -18184,6 +19852,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AQ21:AS21"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AL22:AN22"/>
+    <mergeCell ref="AQ22:AS22"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AQ8:AT8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="M7:AT7"/>
@@ -18200,20 +19882,6 @@
     <mergeCell ref="AG8:AJ8"/>
     <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AL22:AN22"/>
-    <mergeCell ref="AQ22:AS22"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="AQ21:AS21"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -18223,9 +19891,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -18244,70 +19912,70 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="98"/>
       <c r="E2" s="116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="98"/>
       <c r="H2" s="116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="98"/>
       <c r="K2" s="116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="98"/>
     </row>
     <row r="3" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="116" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="116" t="s">
-        <v>82</v>
       </c>
       <c r="M3" s="98"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>21.17</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>2.64</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>22.74</v>
@@ -18315,25 +19983,25 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>3.1</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>28.92</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>3.92</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5">
         <v>25.28</v>
@@ -18341,25 +20009,25 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>3.2</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>25.77</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>2.95</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6">
         <v>21.23</v>
@@ -18367,25 +20035,25 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>3.8</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>23.05</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>4.28</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7">
         <v>24.15</v>
@@ -18393,25 +20061,25 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>2.6</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>30.16</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>4.38</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>24.6</v>
@@ -18419,25 +20087,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>3.6</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>20.73</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <v>4.3899999999999997</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9">
         <v>23.72</v>
@@ -18445,25 +20113,25 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>2.6</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>29.77</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>2.71</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10">
         <v>23.04</v>
@@ -18471,25 +20139,25 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>2.8</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11">
         <v>25.98</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11">
         <v>2.85</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L11">
         <v>22.19</v>
@@ -18497,25 +20165,25 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>6.7</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12">
         <v>94.93</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>27.22</v>
@@ -18523,25 +20191,25 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>2.7</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13">
         <v>58.44</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>0.62</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>22.38</v>
@@ -18549,25 +20217,25 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>2.7</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14">
         <v>63.51</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I14">
         <v>1.3</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14">
         <v>27.59</v>
@@ -18575,25 +20243,25 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>2.8</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>64.02</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>0.65</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15">
         <v>21.9</v>
@@ -18601,25 +20269,25 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>2.7</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>63.32</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16">
         <v>0.53</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16">
         <v>21.97</v>
@@ -18627,25 +20295,25 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>2.5</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>34.799999999999997</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17">
         <v>3.58</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17">
         <v>26.15</v>
@@ -18653,25 +20321,25 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>32.65</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>1.71</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>20.02</v>
@@ -18679,28 +20347,834 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>4.8</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19">
         <v>24.11</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19">
         <v>4.99</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19">
         <v>25.54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20">
+        <v>21.17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>2.64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>3.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21">
+        <v>28.92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21">
+        <v>3.92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>3.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22">
+        <v>25.77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22">
+        <v>2.95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>3.8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23">
+        <v>23.05</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23">
+        <v>4.28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>2.6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>30.16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>4.38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25">
+        <v>3.6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <v>20.73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>2.6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>29.77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>2.71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26">
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>2.8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <v>25.98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27">
+        <v>2.85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>6.7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28">
+        <v>94.93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>2.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>58.44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29">
+        <v>0.62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>2.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>63.51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30">
+        <v>1.3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31">
+        <v>2.8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>64.02</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31">
+        <v>0.65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>2.7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <v>63.32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32">
+        <v>0.53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>2.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33">
+        <v>3.58</v>
+      </c>
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>32.65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>1.71</v>
+      </c>
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35">
+        <v>4.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35">
+        <v>24.11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35">
+        <v>4.99</v>
+      </c>
+      <c r="K35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>3.8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36">
+        <v>23.05</v>
+      </c>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36">
+        <v>4.28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>2.6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <v>30.16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37">
+        <v>4.38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <v>3.6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38">
+        <v>20.73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39">
+        <v>2.6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <v>29.77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39">
+        <v>2.71</v>
+      </c>
+      <c r="K39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39">
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>2.8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40">
+        <v>25.98</v>
+      </c>
+      <c r="H40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40">
+        <v>2.85</v>
+      </c>
+      <c r="K40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>6.7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41">
+        <v>94.93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42">
+        <v>2.7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42">
+        <v>58.44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42">
+        <v>0.62</v>
+      </c>
+      <c r="K42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>2.7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <v>63.51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43">
+        <v>1.3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44">
+        <v>2.8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>64.02</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44">
+        <v>0.65</v>
+      </c>
+      <c r="K44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>2.7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <v>63.32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45">
+        <v>0.53</v>
+      </c>
+      <c r="K45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46">
+        <v>3.58</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>32.65</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>1.71</v>
+      </c>
+      <c r="K47" t="s">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>4.8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48">
+        <v>24.11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48">
+        <v>4.99</v>
+      </c>
+      <c r="K48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>2.9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49">
+        <v>34.94</v>
+      </c>
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K49" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>3.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50">
+        <v>28.81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50">
+        <v>3.47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50">
+        <v>24.76</v>
       </c>
     </row>
   </sheetData>
@@ -18733,13 +21207,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -18750,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -18761,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18772,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18780,10 +21254,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>78.739999999999995</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18791,10 +21265,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>375</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>85.314999999999998</v>
+        <v>77.81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18802,10 +21276,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>87.460000000000008</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18813,10 +21287,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>80.12</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18824,10 +21298,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>79.459999999999994</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18835,10 +21309,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>84.259999999999991</v>
+        <v>80.31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18846,10 +21320,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>81.734999999999999</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18857,10 +21331,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>82.25</v>
+        <v>42.31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18868,10 +21342,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>35.005000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18879,10 +21353,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>795</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>74.47999999999999</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18890,10 +21364,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>649</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>75.474999999999994</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18901,10 +21375,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>687</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>74.765000000000001</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18912,10 +21386,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>788</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>73.734999999999999</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18923,10 +21397,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>434</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>71.56</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18934,10 +21408,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18945,10 +21419,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>85.564999999999998</v>
+        <v>64.42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18956,10 +21430,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>514</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>79.240000000000009</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18978,10 +21452,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>84.62</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -18989,10 +21463,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>78.414999999999992</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19000,10 +21474,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>81.064999999999998</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19011,10 +21485,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>594</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>82.259999999999991</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19022,10 +21496,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>83.314999999999998</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19033,10 +21507,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>78.319999999999993</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19044,10 +21518,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>26.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19055,10 +21529,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>76.094999999999999</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19066,10 +21540,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>449</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>80.7</v>
+        <v>67.349999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19126,53 +21600,53 @@
   <sheetData>
     <row r="2" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19180,7 +21654,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
@@ -19233,7 +21707,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -19284,7 +21758,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -19335,7 +21809,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -19386,7 +21860,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3">
         <v>14</v>
@@ -19439,7 +21913,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3">
         <v>14</v>
@@ -19492,7 +21966,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -19543,7 +22017,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -19594,7 +22068,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3">
         <v>16</v>
@@ -19647,7 +22121,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
@@ -19700,7 +22174,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
@@ -19753,7 +22227,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
@@ -19806,7 +22280,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3">
         <v>22</v>
@@ -19859,7 +22333,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -19912,7 +22386,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3">
         <v>22</v>
@@ -19965,7 +22439,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3">
         <v>22</v>
@@ -20018,7 +22492,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D19" s="3">
         <v>22</v>
@@ -20071,7 +22545,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3">
         <v>22</v>
@@ -20124,7 +22598,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -20177,7 +22651,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -20230,7 +22704,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -20283,7 +22757,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3">
         <v>16</v>
@@ -20336,7 +22810,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -20389,7 +22863,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D26" s="3">
         <v>16</v>
@@ -20442,7 +22916,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3">
         <v>16</v>
@@ -20495,7 +22969,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D28" s="3">
         <v>16</v>
@@ -20548,7 +23022,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3">
         <v>16</v>
@@ -20601,7 +23075,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D30" s="3">
         <v>16</v>
@@ -20651,10 +23125,10 @@
     </row>
     <row r="31" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
@@ -20707,7 +23181,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D32" s="3">
         <v>16</v>
@@ -20760,7 +23234,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D33" s="3">
         <v>8</v>
@@ -20813,7 +23287,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
@@ -20904,7 +23378,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20923,31 +23397,31 @@
   <sheetData>
     <row r="2" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20955,10 +23429,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0.31</v>
@@ -20985,10 +23459,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="34">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -21015,10 +23489,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D5" s="34">
-        <v>78.739999999999995</v>
+        <v>10.63</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -21030,14 +23504,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>469.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I5" s="3">
         <v>1.389</v>
       </c>
       <c r="J5" s="36">
         <f t="shared" si="0"/>
-        <v>651.78825000000006</v>
+        <v>2.8474499999999998</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21045,10 +23519,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="34">
-        <v>85.314999999999998</v>
+        <v>77.81</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -21060,14 +23534,14 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1050.02</v>
+        <v>16.37</v>
       </c>
       <c r="I6" s="3">
         <v>1.9530000000000001</v>
       </c>
       <c r="J6" s="36">
         <f t="shared" si="0"/>
-        <v>2050.6890600000002</v>
+        <v>31.970610000000004</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21075,10 +23549,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7" s="34">
-        <v>87.460000000000008</v>
+        <v>21.86</v>
       </c>
       <c r="E7" s="3">
         <v>0.12</v>
@@ -21090,14 +23564,14 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>1046.6500000000001</v>
+        <v>4.26</v>
       </c>
       <c r="I7" s="3">
         <v>1.204</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" si="0"/>
-        <v>1260.1666</v>
+        <v>5.1290399999999998</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21105,10 +23579,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="34">
-        <v>80.12</v>
+        <v>57.09</v>
       </c>
       <c r="E8" s="3">
         <v>0.12</v>
@@ -21120,14 +23594,14 @@
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>485.1</v>
+        <v>11.74</v>
       </c>
       <c r="I8" s="3">
         <v>1.204</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="0"/>
-        <v>584.06039999999996</v>
+        <v>14.13496</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21135,10 +23609,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9" s="34">
-        <v>79.459999999999994</v>
+        <v>41.3</v>
       </c>
       <c r="E9" s="3">
         <v>0.22</v>
@@ -21150,14 +23624,14 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>478.23</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I9" s="3">
         <v>1.389</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="0"/>
-        <v>664.26147000000003</v>
+        <v>11.750940000000002</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21165,10 +23639,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="34">
-        <v>84.259999999999991</v>
+        <v>80.31</v>
       </c>
       <c r="E10" s="3">
         <v>0.18</v>
@@ -21180,14 +23654,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="3">
-        <v>1221.4000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I10" s="3">
         <v>1.389</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="0"/>
-        <v>1696.5246000000002</v>
+        <v>24.446400000000001</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21195,10 +23669,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="34">
-        <v>81.734999999999999</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <v>0.16</v>
@@ -21210,14 +23684,14 @@
         <v>33</v>
       </c>
       <c r="H11" s="3">
-        <v>1254.95</v>
+        <v>18.79</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>1254.95</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21225,10 +23699,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" s="34">
-        <v>82.25</v>
+        <v>42.31</v>
       </c>
       <c r="E12" s="3">
         <v>0.15</v>
@@ -21240,14 +23714,14 @@
         <v>34</v>
       </c>
       <c r="H12" s="3">
-        <v>1215.6600000000001</v>
+        <v>10.24</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" si="0"/>
-        <v>1215.6600000000001</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21255,10 +23729,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="34">
-        <v>35.005000000000003</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0.15</v>
@@ -21270,14 +23744,14 @@
         <v>33</v>
       </c>
       <c r="H13" s="3">
-        <v>508.75</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" si="0"/>
-        <v>508.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21285,10 +23759,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D14" s="34">
-        <v>74.47999999999999</v>
+        <v>15.57</v>
       </c>
       <c r="E14" s="3">
         <v>0.15</v>
@@ -21300,14 +23774,14 @@
         <v>34</v>
       </c>
       <c r="H14" s="3">
-        <v>2195.1</v>
+        <v>6.73</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="0"/>
-        <v>2195.1</v>
+        <v>6.73</v>
       </c>
       <c r="M14" s="30"/>
     </row>
@@ -21316,10 +23790,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" s="34">
-        <v>75.474999999999994</v>
+        <v>25.03</v>
       </c>
       <c r="E15" s="3">
         <v>0.1</v>
@@ -21331,14 +23805,14 @@
         <v>55</v>
       </c>
       <c r="H15" s="3">
-        <v>2198.48</v>
+        <v>12.39</v>
       </c>
       <c r="I15" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" si="0"/>
-        <v>1556.5238399999998</v>
+        <v>8.7721199999999993</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21346,10 +23820,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" s="34">
-        <v>74.765000000000001</v>
+        <v>53.15</v>
       </c>
       <c r="E16" s="3">
         <v>0.09</v>
@@ -21361,14 +23835,14 @@
         <v>49</v>
       </c>
       <c r="H16" s="3">
-        <v>2201.16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I16" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" si="0"/>
-        <v>1558.4212799999998</v>
+        <v>11.752800000000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21376,10 +23850,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" s="34">
-        <v>73.734999999999999</v>
+        <v>47.57</v>
       </c>
       <c r="E17" s="3">
         <v>0.09</v>
@@ -21391,14 +23865,14 @@
         <v>57</v>
       </c>
       <c r="H17" s="3">
-        <v>2165.4899999999998</v>
+        <v>14.26</v>
       </c>
       <c r="I17" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="0"/>
-        <v>1533.1669199999997</v>
+        <v>10.096079999999999</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21406,10 +23880,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3">
-        <v>71.56</v>
+        <v>53.04</v>
       </c>
       <c r="E18" s="3">
         <v>0.1</v>
@@ -21421,14 +23895,14 @@
         <v>54</v>
       </c>
       <c r="H18" s="3">
-        <v>1033.55</v>
+        <v>15.43</v>
       </c>
       <c r="I18" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="0"/>
-        <v>731.75339999999994</v>
+        <v>10.924439999999999</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21436,10 +23910,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D19" s="34">
-        <v>0</v>
+        <v>46.22</v>
       </c>
       <c r="E19" s="3">
         <v>0.1</v>
@@ -21451,14 +23925,14 @@
         <v>42</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>13.84</v>
       </c>
       <c r="I19" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J19" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7987199999999994</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21466,10 +23940,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D20" s="34">
-        <v>85.564999999999998</v>
+        <v>64.42</v>
       </c>
       <c r="E20" s="3">
         <v>0.1</v>
@@ -21481,14 +23955,14 @@
         <v>56</v>
       </c>
       <c r="H20" s="3">
-        <v>1234.53</v>
+        <v>20.59</v>
       </c>
       <c r="I20" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J20" s="36">
         <f t="shared" si="0"/>
-        <v>874.04723999999999</v>
+        <v>14.577719999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21496,10 +23970,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D21" s="34">
-        <v>79.240000000000009</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="E21" s="3">
         <v>0.14000000000000001</v>
@@ -21511,14 +23985,14 @@
         <v>37</v>
       </c>
       <c r="H21" s="3">
-        <v>1149.47</v>
+        <v>13.9</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="36">
         <f t="shared" si="0"/>
-        <v>1149.47</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21526,7 +24000,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" s="34">
         <v>0</v>
@@ -21556,10 +24030,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="34">
-        <v>84.62</v>
+        <v>35.22</v>
       </c>
       <c r="E23" s="3">
         <v>0.14000000000000001</v>
@@ -21571,14 +24045,14 @@
         <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>1226.03</v>
+        <v>7.62</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" si="0"/>
-        <v>1226.03</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21586,10 +24060,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D24" s="34">
-        <v>78.414999999999992</v>
+        <v>66.95</v>
       </c>
       <c r="E24" s="3">
         <v>0.13</v>
@@ -21601,14 +24075,14 @@
         <v>37</v>
       </c>
       <c r="H24" s="3">
-        <v>1148.8699999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" si="0"/>
-        <v>1148.8699999999999</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21616,10 +24090,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D25" s="34">
-        <v>81.064999999999998</v>
+        <v>55.13</v>
       </c>
       <c r="E25" s="3">
         <v>0.14000000000000001</v>
@@ -21631,14 +24105,14 @@
         <v>36</v>
       </c>
       <c r="H25" s="3">
-        <v>1176.6600000000001</v>
+        <v>13.78</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" si="0"/>
-        <v>1176.6600000000001</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21646,10 +24120,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D26" s="34">
-        <v>82.259999999999991</v>
+        <v>25.11</v>
       </c>
       <c r="E26" s="3">
         <v>0.13</v>
@@ -21661,14 +24135,14 @@
         <v>38</v>
       </c>
       <c r="H26" s="3">
-        <v>1206.26</v>
+        <v>6.21</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" si="0"/>
-        <v>1206.26</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21676,10 +24150,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D27" s="34">
-        <v>83.314999999999998</v>
+        <v>46.65</v>
       </c>
       <c r="E27" s="3">
         <v>0.14000000000000001</v>
@@ -21691,14 +24165,14 @@
         <v>36</v>
       </c>
       <c r="H27" s="3">
-        <v>1215.56</v>
+        <v>11.78</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" si="0"/>
-        <v>1215.56</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21706,10 +24180,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D28" s="34">
-        <v>78.319999999999993</v>
+        <v>24.35</v>
       </c>
       <c r="E28" s="3">
         <v>0.14000000000000001</v>
@@ -21721,14 +24195,14 @@
         <v>20</v>
       </c>
       <c r="H28" s="3">
-        <v>1161.42</v>
+        <v>6.25</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" si="0"/>
-        <v>1161.42</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -21736,10 +24210,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D29" s="34">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0.15</v>
@@ -21751,14 +24225,14 @@
         <v>34</v>
       </c>
       <c r="H29" s="3">
-        <v>392.51</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
       </c>
       <c r="J29" s="36">
         <f t="shared" si="0"/>
-        <v>392.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21766,10 +24240,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D30" s="34">
-        <v>76.094999999999999</v>
+        <v>32.79</v>
       </c>
       <c r="E30" s="3">
         <v>0.15</v>
@@ -21781,25 +24255,25 @@
         <v>33</v>
       </c>
       <c r="H30" s="3">
-        <v>1149.96</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" si="0"/>
-        <v>1149.96</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D31" s="34">
-        <v>80.7</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="E31" s="3">
         <v>0.16</v>
@@ -21811,14 +24285,14 @@
         <v>25</v>
       </c>
       <c r="H31" s="3">
-        <v>1245.7</v>
+        <v>18.36</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="36">
         <f t="shared" si="0"/>
-        <v>1245.7</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21826,7 +24300,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -21856,7 +24330,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D33" s="34">
         <v>0</v>
@@ -21886,7 +24360,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">

--- a/UltimoJJ analysis report.xlsx
+++ b/UltimoJJ analysis report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ultimoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2AFBF-1F8A-4BC3-8912-4103F6D9A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAD1205-AB1F-495E-B1C0-007009E632B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="180" windowWidth="22836" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="180" windowWidth="22836" windowHeight="12780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="128">
   <si>
     <t>UltimoJJ analysis report as on 13.03.2024</t>
   </si>
@@ -334,12 +334,6 @@
   </si>
   <si>
     <t>24/03/2024 - S3</t>
-  </si>
-  <si>
-    <t>25/03/2024 - S1</t>
-  </si>
-  <si>
-    <t>25/03/2024 - S2</t>
   </si>
   <si>
     <t>25/03/2024 - S3</t>
@@ -1235,7 +1229,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E4E-4861-8A46-EEEFE18D591F}"/>
+              <c16:uniqueId val="{00000000-8347-438E-8A60-2272404D54B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1399,9 +1393,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Trends!$E$4:$E$50</c:f>
+              <c:f>Trends!$E$4:$E$21</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>19/03/2024 - S1</c:v>
                 </c:pt>
@@ -1448,99 +1442,12 @@
                   <c:v>24/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25/03/2024 - S1</c:v>
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19/03/2024 - S1</c:v>
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="46">
                   <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1548,10 +1455,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$F$5:$F$50</c:f>
+              <c:f>Trends!$F$5:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>28.92</c:v>
                 </c:pt>
@@ -1595,99 +1502,12 @@
                   <c:v>32.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.11</c:v>
+                  <c:v>28.81</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.17</c:v>
+                  <c:v>28.81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.05</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.77</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.98</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>58.44</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>63.51</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>64.02</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63.32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.11</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.05</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.77</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25.98</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>58.44</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>63.51</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64.02</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>63.32</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32.65</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>34.94</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>28.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -1695,7 +1515,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-332C-49C8-9253-717889291D25}"/>
+              <c16:uniqueId val="{00000000-9409-4ECA-97BC-2585697D3903}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,9 +1679,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Trends!$H$4:$H$50</c:f>
+              <c:f>Trends!$H$4:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>19/03/2024 - S1</c:v>
                 </c:pt>
@@ -1907,100 +1727,10 @@
                 <c:pt idx="14">
                   <c:v>24/03/2024 - S3</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>19/03/2024 - S1</c:v>
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="46">
                   <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2008,10 +1738,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$I$5:$I$50</c:f>
+              <c:f>Trends!$I$5:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3.92</c:v>
                 </c:pt>
@@ -2054,100 +1784,10 @@
                 <c:pt idx="13">
                   <c:v>1.71</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.99</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.64</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.3899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.99</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>3.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -2155,7 +1795,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-442F-4814-B426-15B374B4ED58}"/>
+              <c16:uniqueId val="{00000000-027A-45ED-A9CD-4F08FB093A6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,9 +1959,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Trends!$K$4:$K$50</c:f>
+              <c:f>Trends!$K$4:$K$21</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>19/03/2024 - S1</c:v>
                 </c:pt>
@@ -2367,100 +2007,7 @@
                 <c:pt idx="14">
                   <c:v>24/03/2024 - S3</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19/03/2024 - S1</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="46">
                   <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2468,10 +2015,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$L$5:$L$50</c:f>
+              <c:f>Trends!$L$5:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>25.28</c:v>
                 </c:pt>
@@ -2514,100 +2061,7 @@
                 <c:pt idx="13">
                   <c:v>20.02</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.74</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.72</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27.22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.97</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.72</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27.22</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.97</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>24.54</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>24.76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2615,7 +2069,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-460B-4503-8B33-3E67B5DF4B45}"/>
+              <c16:uniqueId val="{00000000-504B-412C-8B39-DAA8B6254BAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2811,7 +2265,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FAE-49AA-A547-89883A481D38}"/>
+              <c16:uniqueId val="{00000000-78FF-4184-851C-DA36F2CADE92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3007,7 +2461,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-813D-40E6-A257-447161DF8B67}"/>
+              <c16:uniqueId val="{00000000-7482-43C7-B817-BD316D7BDE33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3203,7 +2657,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B05F-422E-BB14-276F655D0FB3}"/>
+              <c16:uniqueId val="{00000000-465A-4A79-A6FC-2DCA18799D24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3330,7 +2784,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Avg stop minutes per frame</a:t>
             </a:r>
           </a:p>
@@ -3399,7 +2852,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB48-4814-B8C4-A7CEAC908E92}"/>
+              <c16:uniqueId val="{00000000-2778-47A5-8153-B1DBA76018C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3432,7 +2885,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Categories</a:t>
                 </a:r>
               </a:p>
@@ -3469,7 +2921,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -3526,7 +2977,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Frame wise ends breakage </a:t>
             </a:r>
           </a:p>
@@ -3770,7 +3220,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B43D-4742-9A6A-7340B4ED3018}"/>
+              <c16:uniqueId val="{00000000-9D42-461F-8F4A-A316A035C1B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3803,7 +3253,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Categories</a:t>
                 </a:r>
               </a:p>
@@ -3840,7 +3289,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -3897,7 +3345,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Frame wise converted production</a:t>
             </a:r>
           </a:p>
@@ -4014,64 +3461,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>14.13496</c:v>
+                  <c:v>28.269919999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.750940000000002</c:v>
+                  <c:v>23.501880000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.446400000000001</c:v>
+                  <c:v>48.892800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.79</c:v>
+                  <c:v>37.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.24</c:v>
+                  <c:v>20.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.73</c:v>
+                  <c:v>13.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7721199999999993</c:v>
+                  <c:v>17.544239999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.752800000000001</c:v>
+                  <c:v>23.505600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.096079999999999</c:v>
+                  <c:v>20.192159999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.924439999999999</c:v>
+                  <c:v>21.848879999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.577719999999999</c:v>
+                  <c:v>29.155439999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.9</c:v>
+                  <c:v>27.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.62</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.78</c:v>
+                  <c:v>27.56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.21</c:v>
+                  <c:v>12.42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.78</c:v>
+                  <c:v>23.56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.25</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -4084,7 +3531,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A54B-4C4C-9720-33AB526649FA}"/>
+              <c16:uniqueId val="{00000000-D4A1-4D2F-8598-264716D4056B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4117,7 +3564,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Categories</a:t>
                 </a:r>
               </a:p>
@@ -4154,7 +3600,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -4211,7 +3656,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Frame wise efficiency as on</a:t>
             </a:r>
           </a:p>
@@ -4395,7 +3839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71EC-437F-9C19-EE4A35D92E11}"/>
+              <c16:uniqueId val="{00000000-6D43-4912-AE50-F3B7BDFD995A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4428,7 +3872,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Categories</a:t>
                 </a:r>
               </a:p>
@@ -4465,7 +3908,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -4559,9 +4001,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Trends!$B$4:$B$50</c:f>
+              <c:f>Trends!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>19/03/2024 - S1</c:v>
                 </c:pt>
@@ -4608,99 +4050,12 @@
                   <c:v>24/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25/03/2024 - S1</c:v>
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19/03/2024 - S1</c:v>
+                  <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="46">
                   <c:v>25/03/2024 - S3</c:v>
                 </c:pt>
               </c:strCache>
@@ -4708,10 +4063,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$C$5:$C$50</c:f>
+              <c:f>Trends!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3.1</c:v>
                 </c:pt>
@@ -4755,99 +4110,12 @@
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="45">
                   <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4855,7 +4123,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DDD-4D9F-BBD8-9D33AF40D4F0}"/>
+              <c16:uniqueId val="{00000000-699D-40FC-A32B-2F3DC62A7C92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5634,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView showGridLines="0" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19891,10 +19159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M50"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20350,830 +19618,58 @@
         <v>101</v>
       </c>
       <c r="C19">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="s">
         <v>101</v>
       </c>
       <c r="F19">
-        <v>24.11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19">
-        <v>4.99</v>
-      </c>
-      <c r="K19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19">
-        <v>25.54</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F20">
-        <v>21.17</v>
+        <v>28.81</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I20">
-        <v>2.64</v>
-      </c>
-      <c r="K20" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20">
-        <v>22.74</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C21">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F21">
-        <v>28.92</v>
+        <v>28.81</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I21">
-        <v>3.92</v>
+        <v>3.47</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="L21">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22">
-        <v>3.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22">
-        <v>25.77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22">
-        <v>2.95</v>
-      </c>
-      <c r="K22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22">
-        <v>21.23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23">
-        <v>3.8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23">
-        <v>23.05</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23">
-        <v>4.28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23">
-        <v>24.15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24">
-        <v>2.6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>30.16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24">
-        <v>4.38</v>
-      </c>
-      <c r="K24" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25">
-        <v>3.6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25">
-        <v>20.73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26">
-        <v>2.6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26">
-        <v>29.77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26">
-        <v>2.71</v>
-      </c>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27">
-        <v>2.8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27">
-        <v>25.98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27">
-        <v>2.85</v>
-      </c>
-      <c r="K27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27">
-        <v>22.19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28">
-        <v>6.7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28">
-        <v>94.93</v>
-      </c>
-      <c r="H28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28">
-        <v>27.22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29">
-        <v>2.7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29">
-        <v>58.44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29">
-        <v>0.62</v>
-      </c>
-      <c r="K29" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30">
-        <v>2.7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30">
-        <v>63.51</v>
-      </c>
-      <c r="H30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30">
-        <v>1.3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30">
-        <v>27.59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31">
-        <v>2.8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31">
-        <v>64.02</v>
-      </c>
-      <c r="H31" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31">
-        <v>0.65</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32">
-        <v>2.7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32">
-        <v>63.32</v>
-      </c>
-      <c r="H32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32">
-        <v>0.53</v>
-      </c>
-      <c r="K32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32">
-        <v>21.97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33">
-        <v>2.5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33">
-        <v>3.58</v>
-      </c>
-      <c r="K33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33">
-        <v>26.15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>32.65</v>
-      </c>
-      <c r="H34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34">
-        <v>1.71</v>
-      </c>
-      <c r="K34" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35">
-        <v>4.8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35">
-        <v>24.11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35">
-        <v>4.99</v>
-      </c>
-      <c r="K35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L35">
-        <v>25.54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36">
-        <v>3.8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36">
-        <v>23.05</v>
-      </c>
-      <c r="H36" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36">
-        <v>4.28</v>
-      </c>
-      <c r="K36" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36">
-        <v>24.15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37">
-        <v>2.6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>30.16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37">
-        <v>4.38</v>
-      </c>
-      <c r="K37" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38">
-        <v>3.6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38">
-        <v>20.73</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K38" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39">
-        <v>2.6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39">
-        <v>29.77</v>
-      </c>
-      <c r="H39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39">
-        <v>2.71</v>
-      </c>
-      <c r="K39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40">
-        <v>2.8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40">
-        <v>25.98</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40">
-        <v>2.85</v>
-      </c>
-      <c r="K40" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40">
-        <v>22.19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41">
-        <v>6.7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41">
-        <v>94.93</v>
-      </c>
-      <c r="H41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41">
-        <v>27.22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42">
-        <v>2.7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42">
-        <v>58.44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42">
-        <v>0.62</v>
-      </c>
-      <c r="K42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43">
-        <v>2.7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43">
-        <v>63.51</v>
-      </c>
-      <c r="H43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43">
-        <v>1.3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43">
-        <v>27.59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44">
-        <v>2.8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44">
-        <v>64.02</v>
-      </c>
-      <c r="H44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44">
-        <v>0.65</v>
-      </c>
-      <c r="K44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45">
-        <v>2.7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45">
-        <v>63.32</v>
-      </c>
-      <c r="H45" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45">
-        <v>0.53</v>
-      </c>
-      <c r="K45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45">
-        <v>21.97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>2.5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46">
-        <v>3.58</v>
-      </c>
-      <c r="K46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L46">
-        <v>26.15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47">
-        <v>32.65</v>
-      </c>
-      <c r="H47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47">
-        <v>1.71</v>
-      </c>
-      <c r="K47" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48">
-        <v>4.8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48">
-        <v>24.11</v>
-      </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48">
-        <v>4.99</v>
-      </c>
-      <c r="K48" t="s">
-        <v>101</v>
-      </c>
-      <c r="L48">
-        <v>25.54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49">
-        <v>2.9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49">
-        <v>34.94</v>
-      </c>
-      <c r="H49" t="s">
-        <v>102</v>
-      </c>
-      <c r="I49">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="K49" t="s">
-        <v>102</v>
-      </c>
-      <c r="L49">
-        <v>24.54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50">
-        <v>3.5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50">
-        <v>28.81</v>
-      </c>
-      <c r="H50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50">
-        <v>3.47</v>
-      </c>
-      <c r="K50" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50">
         <v>24.76</v>
       </c>
     </row>
@@ -21193,8 +19689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21207,13 +19703,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21265,7 +19761,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>77.81</v>
@@ -21276,7 +19772,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>21.86</v>
@@ -21287,7 +19783,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>57.09</v>
@@ -21298,7 +19794,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>41.3</v>
@@ -21309,7 +19805,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>80.31</v>
@@ -21320,7 +19816,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>72</v>
@@ -21331,7 +19827,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>42.31</v>
@@ -21353,7 +19849,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>15.57</v>
@@ -21364,7 +19860,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>25.03</v>
@@ -21375,7 +19871,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>53.15</v>
@@ -21386,7 +19882,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>47.57</v>
@@ -21397,7 +19893,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>53.04</v>
@@ -21408,7 +19904,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>46.22</v>
@@ -21419,7 +19915,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>64.42</v>
@@ -21430,7 +19926,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>66.599999999999994</v>
@@ -21452,7 +19948,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>35.22</v>
@@ -21463,7 +19959,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>66.95</v>
@@ -21474,7 +19970,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>55.13</v>
@@ -21485,7 +19981,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>25.11</v>
@@ -21496,7 +19992,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>46.65</v>
@@ -21507,7 +20003,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>24.35</v>
@@ -21529,7 +20025,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>32.79</v>
@@ -21540,7 +20036,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>67.349999999999994</v>
@@ -21600,53 +20096,53 @@
   <sheetData>
     <row r="2" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21654,7 +20150,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
@@ -21707,7 +20203,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -21758,7 +20254,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -21809,7 +20305,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -21860,7 +20356,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3">
         <v>14</v>
@@ -21913,7 +20409,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3">
         <v>14</v>
@@ -21966,7 +20462,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -22017,7 +20513,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -22068,7 +20564,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3">
         <v>16</v>
@@ -22121,7 +20617,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
@@ -22174,7 +20670,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
@@ -22227,7 +20723,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
@@ -22280,7 +20776,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3">
         <v>22</v>
@@ -22333,7 +20829,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -22386,7 +20882,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3">
         <v>22</v>
@@ -22439,7 +20935,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3">
         <v>22</v>
@@ -22492,7 +20988,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3">
         <v>22</v>
@@ -22545,7 +21041,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3">
         <v>22</v>
@@ -22598,7 +21094,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -22651,7 +21147,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -22704,7 +21200,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -22757,7 +21253,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="3">
         <v>16</v>
@@ -22810,7 +21306,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -22863,7 +21359,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="3">
         <v>16</v>
@@ -22916,7 +21412,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="3">
         <v>16</v>
@@ -22969,7 +21465,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="3">
         <v>16</v>
@@ -23022,7 +21518,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="3">
         <v>16</v>
@@ -23075,7 +21571,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3">
         <v>16</v>
@@ -23125,10 +21621,10 @@
     </row>
     <row r="31" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
@@ -23181,7 +21677,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3">
         <v>16</v>
@@ -23234,7 +21730,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="3">
         <v>8</v>
@@ -23287,7 +21783,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
@@ -23397,31 +21893,31 @@
   <sheetData>
     <row r="2" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23429,7 +21925,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="34">
         <v>0</v>
@@ -23459,7 +21955,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="34">
         <v>0</v>
@@ -23489,7 +21985,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="34">
         <v>10.63</v>
@@ -23504,14 +22000,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>2.0499999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I5" s="3">
         <v>1.389</v>
       </c>
       <c r="J5" s="36">
         <f t="shared" si="0"/>
-        <v>2.8474499999999998</v>
+        <v>5.6948999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23519,7 +22015,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="34">
         <v>77.81</v>
@@ -23534,14 +22030,14 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>16.37</v>
+        <v>32.74</v>
       </c>
       <c r="I6" s="3">
         <v>1.9530000000000001</v>
       </c>
       <c r="J6" s="36">
         <f t="shared" si="0"/>
-        <v>31.970610000000004</v>
+        <v>63.941220000000008</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23549,7 +22045,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="34">
         <v>21.86</v>
@@ -23564,14 +22060,14 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>4.26</v>
+        <v>8.52</v>
       </c>
       <c r="I7" s="3">
         <v>1.204</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" si="0"/>
-        <v>5.1290399999999998</v>
+        <v>10.25808</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23579,7 +22075,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="34">
         <v>57.09</v>
@@ -23594,14 +22090,14 @@
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>11.74</v>
+        <v>23.48</v>
       </c>
       <c r="I8" s="3">
         <v>1.204</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="0"/>
-        <v>14.13496</v>
+        <v>28.269919999999999</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23609,7 +22105,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="34">
         <v>41.3</v>
@@ -23624,14 +22120,14 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>8.4600000000000009</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="I9" s="3">
         <v>1.389</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="0"/>
-        <v>11.750940000000002</v>
+        <v>23.501880000000003</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23639,7 +22135,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="34">
         <v>80.31</v>
@@ -23654,14 +22150,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="3">
-        <v>17.600000000000001</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="I10" s="3">
         <v>1.389</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="0"/>
-        <v>24.446400000000001</v>
+        <v>48.892800000000001</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23669,7 +22165,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="34">
         <v>72</v>
@@ -23684,14 +22180,14 @@
         <v>33</v>
       </c>
       <c r="H11" s="3">
-        <v>18.79</v>
+        <v>37.58</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>18.79</v>
+        <v>37.58</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23699,7 +22195,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="34">
         <v>42.31</v>
@@ -23714,14 +22210,14 @@
         <v>34</v>
       </c>
       <c r="H12" s="3">
-        <v>10.24</v>
+        <v>20.48</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" si="0"/>
-        <v>10.24</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23729,7 +22225,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="34">
         <v>0</v>
@@ -23759,7 +22255,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="34">
         <v>15.57</v>
@@ -23774,14 +22270,14 @@
         <v>34</v>
       </c>
       <c r="H14" s="3">
-        <v>6.73</v>
+        <v>13.46</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="0"/>
-        <v>6.73</v>
+        <v>13.46</v>
       </c>
       <c r="M14" s="30"/>
     </row>
@@ -23790,7 +22286,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="34">
         <v>25.03</v>
@@ -23805,14 +22301,14 @@
         <v>55</v>
       </c>
       <c r="H15" s="3">
-        <v>12.39</v>
+        <v>24.78</v>
       </c>
       <c r="I15" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" si="0"/>
-        <v>8.7721199999999993</v>
+        <v>17.544239999999999</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23820,7 +22316,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="34">
         <v>53.15</v>
@@ -23835,14 +22331,14 @@
         <v>49</v>
       </c>
       <c r="H16" s="3">
-        <v>16.600000000000001</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="I16" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" si="0"/>
-        <v>11.752800000000001</v>
+        <v>23.505600000000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23850,7 +22346,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="34">
         <v>47.57</v>
@@ -23865,14 +22361,14 @@
         <v>57</v>
       </c>
       <c r="H17" s="3">
-        <v>14.26</v>
+        <v>28.52</v>
       </c>
       <c r="I17" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="0"/>
-        <v>10.096079999999999</v>
+        <v>20.192159999999998</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23880,7 +22376,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3">
         <v>53.04</v>
@@ -23895,14 +22391,14 @@
         <v>54</v>
       </c>
       <c r="H18" s="3">
-        <v>15.43</v>
+        <v>30.86</v>
       </c>
       <c r="I18" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="0"/>
-        <v>10.924439999999999</v>
+        <v>21.848879999999998</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -23910,7 +22406,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="34">
         <v>46.22</v>
@@ -23925,14 +22421,14 @@
         <v>42</v>
       </c>
       <c r="H19" s="3">
-        <v>13.84</v>
+        <v>27.68</v>
       </c>
       <c r="I19" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J19" s="36">
         <f t="shared" si="0"/>
-        <v>9.7987199999999994</v>
+        <v>19.597439999999999</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23940,7 +22436,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="34">
         <v>64.42</v>
@@ -23955,14 +22451,14 @@
         <v>56</v>
       </c>
       <c r="H20" s="3">
-        <v>20.59</v>
+        <v>41.18</v>
       </c>
       <c r="I20" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J20" s="36">
         <f t="shared" si="0"/>
-        <v>14.577719999999999</v>
+        <v>29.155439999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -23970,7 +22466,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="34">
         <v>66.599999999999994</v>
@@ -23985,14 +22481,14 @@
         <v>37</v>
       </c>
       <c r="H21" s="3">
-        <v>13.9</v>
+        <v>27.8</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="36">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24000,7 +22496,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="34">
         <v>0</v>
@@ -24030,7 +22526,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" s="34">
         <v>35.22</v>
@@ -24045,14 +22541,14 @@
         <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>7.62</v>
+        <v>15.24</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24060,7 +22556,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="34">
         <v>66.95</v>
@@ -24075,14 +22571,14 @@
         <v>37</v>
       </c>
       <c r="H24" s="3">
-        <v>16.899999999999999</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" si="0"/>
-        <v>16.899999999999999</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24090,7 +22586,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="34">
         <v>55.13</v>
@@ -24105,14 +22601,14 @@
         <v>36</v>
       </c>
       <c r="H25" s="3">
-        <v>13.78</v>
+        <v>27.56</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" si="0"/>
-        <v>13.78</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24120,7 +22616,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="34">
         <v>25.11</v>
@@ -24135,14 +22631,14 @@
         <v>38</v>
       </c>
       <c r="H26" s="3">
-        <v>6.21</v>
+        <v>12.42</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" si="0"/>
-        <v>6.21</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24150,7 +22646,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="34">
         <v>46.65</v>
@@ -24165,14 +22661,14 @@
         <v>36</v>
       </c>
       <c r="H27" s="3">
-        <v>11.78</v>
+        <v>23.56</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" si="0"/>
-        <v>11.78</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24180,7 +22676,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="34">
         <v>24.35</v>
@@ -24195,14 +22691,14 @@
         <v>20</v>
       </c>
       <c r="H28" s="3">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24210,7 +22706,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="34">
         <v>0</v>
@@ -24240,7 +22736,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="34">
         <v>32.79</v>
@@ -24255,22 +22751,22 @@
         <v>33</v>
       </c>
       <c r="H30" s="3">
-        <v>8.7899999999999991</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" si="0"/>
-        <v>8.7899999999999991</v>
+        <v>17.579999999999998</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="34">
         <v>67.349999999999994</v>
@@ -24285,14 +22781,14 @@
         <v>25</v>
       </c>
       <c r="H31" s="3">
-        <v>18.36</v>
+        <v>36.72</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="36">
         <f t="shared" si="0"/>
-        <v>18.36</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -24300,7 +22796,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -24330,7 +22826,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="34">
         <v>0</v>
@@ -24360,7 +22856,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">

--- a/UltimoJJ analysis report.xlsx
+++ b/UltimoJJ analysis report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ultimoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAD1205-AB1F-495E-B1C0-007009E632B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6716A6-68DA-4405-90CD-9BD94E3BBBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="180" windowWidth="22836" windowHeight="12780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="180" windowWidth="22836" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="127">
   <si>
     <t>UltimoJJ analysis report as on 13.03.2024</t>
   </si>
@@ -291,15 +291,6 @@
     <t>Avg Min</t>
   </si>
   <si>
-    <t>19/03/2024 - S1</t>
-  </si>
-  <si>
-    <t>19/03/2024 - S2</t>
-  </si>
-  <si>
-    <t>19/03/2024 - S3</t>
-  </si>
-  <si>
     <t>20/03/2024 - S1</t>
   </si>
   <si>
@@ -334,6 +325,12 @@
   </si>
   <si>
     <t>24/03/2024 - S3</t>
+  </si>
+  <si>
+    <t>25/03/2024 - S1</t>
+  </si>
+  <si>
+    <t>25/03/2024 - S2</t>
   </si>
   <si>
     <t>25/03/2024 - S3</t>
@@ -1084,6 +1081,21 @@
     <xf numFmtId="169" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,25 +1105,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,7 +1226,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8347-438E-8A60-2272404D54B0}"/>
+              <c16:uniqueId val="{00000000-C600-4399-91EC-7DD8E4771DB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1374,148 +1371,27 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Trends!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Trends!$E$4:$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>19/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$F$5:$F$21</c:f>
+              <c:f>Trends!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.77</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94.93</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>63.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.81</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.81</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.81</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9409-4ECA-97BC-2585697D3903}"/>
+              <c16:uniqueId val="{00000000-D0E2-46AF-BA23-A928F294ED0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1660,142 +1536,27 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Trends!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Trends!$H$4:$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>19/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$I$5:$I$21</c:f>
+              <c:f>Trends!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.47</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-027A-45ED-A9CD-4F08FB093A6E}"/>
+              <c16:uniqueId val="{00000000-A3DC-426B-9462-F0616A73D661}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1940,136 +1701,27 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Trends!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.74</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Trends!$K$4:$K$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>19/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$L$5:$L$21</c:f>
+              <c:f>Trends!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.97</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.76</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-504B-412C-8B39-DAA8B6254BAA}"/>
+              <c16:uniqueId val="{00000000-1143-4DCC-9563-8F7C143275BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2265,7 +1917,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78FF-4184-851C-DA36F2CADE92}"/>
+              <c16:uniqueId val="{00000000-E704-490C-AD90-2948E231E9F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2461,7 +2113,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7482-43C7-B817-BD316D7BDE33}"/>
+              <c16:uniqueId val="{00000000-864D-4BED-B3B7-4E8EDAECE252}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2657,7 +2309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-465A-4A79-A6FC-2DCA18799D24}"/>
+              <c16:uniqueId val="{00000000-1086-4D5C-B755-C24113448353}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2852,7 +2504,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2778-47A5-8153-B1DBA76018C2}"/>
+              <c16:uniqueId val="{00000000-F77A-4D3D-A1D4-D7B78ABB7DFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,7 +2872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D42-461F-8F4A-A316A035C1B2}"/>
+              <c16:uniqueId val="{00000000-9260-4323-94B1-E9403DF27EF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3461,64 +3113,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>28.269919999999999</c:v>
+                  <c:v>42.404879999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.501880000000003</c:v>
+                  <c:v>35.25282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.892800000000001</c:v>
+                  <c:v>73.339199999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.58</c:v>
+                  <c:v>56.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.48</c:v>
+                  <c:v>30.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.46</c:v>
+                  <c:v>20.190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.544239999999999</c:v>
+                  <c:v>26.31636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.505600000000001</c:v>
+                  <c:v>35.258399999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.192159999999998</c:v>
+                  <c:v>30.288239999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.848879999999998</c:v>
+                  <c:v>32.773319999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.155439999999999</c:v>
+                  <c:v>43.733159999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.8</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.24</c:v>
+                  <c:v>22.86</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>50.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.56</c:v>
+                  <c:v>41.34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.42</c:v>
+                  <c:v>18.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.56</c:v>
+                  <c:v>35.340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.5</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3531,7 +3183,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4A1-4D2F-8598-264716D4056B}"/>
+              <c16:uniqueId val="{00000000-BBF7-428E-B278-4664E70A527D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3839,7 +3491,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D43-4912-AE50-F3B7BDFD995A}"/>
+              <c16:uniqueId val="{00000000-B3F6-4F1F-9EA0-9ED937926FC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3982,148 +3634,27 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Trends!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Trends!$B$4:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>19/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24/03/2024 - S1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24/03/2024 - S2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25/03/2024 - S3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Trends!$C$5:$C$21</c:f>
+              <c:f>Trends!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-699D-40FC-A32B-2F3DC62A7C92}"/>
+              <c16:uniqueId val="{00000000-2331-41FD-96B4-E2303219868D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4902,8 +4433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6277,7 +5808,7 @@
     </row>
     <row r="7" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="111" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="97"/>
@@ -6285,14 +5816,14 @@
       <c r="E7" s="97"/>
       <c r="F7" s="98"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="111" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="97"/>
       <c r="J7" s="97"/>
       <c r="K7" s="98"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="104" t="s">
+      <c r="M7" s="111" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="97"/>
@@ -6329,7 +5860,7 @@
       <c r="AS7" s="97"/>
       <c r="AT7" s="98"/>
       <c r="AU7" s="51"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AV7" s="112" t="s">
         <v>40</v>
       </c>
       <c r="AW7" s="97"/>
@@ -6372,97 +5903,97 @@
         <v>33</v>
       </c>
       <c r="L8" s="51"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="114" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="98"/>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="110"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="109" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="110"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="109" t="s">
+      <c r="U8" s="109"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="109" t="s">
+      <c r="X8" s="109"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="112" t="s">
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="112" t="s">
+      <c r="AD8" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="112" t="s">
+      <c r="AE8" s="115" t="s">
         <v>50</v>
       </c>
       <c r="AF8" s="51"/>
-      <c r="AG8" s="109" t="s">
+      <c r="AG8" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="111"/>
+      <c r="AH8" s="109"/>
+      <c r="AI8" s="109"/>
+      <c r="AJ8" s="110"/>
       <c r="AK8" s="51"/>
-      <c r="AL8" s="109" t="s">
+      <c r="AL8" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="111"/>
+      <c r="AM8" s="109"/>
+      <c r="AN8" s="109"/>
+      <c r="AO8" s="110"/>
       <c r="AP8" s="51"/>
-      <c r="AQ8" s="109" t="s">
+      <c r="AQ8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="111"/>
+      <c r="AR8" s="109"/>
+      <c r="AS8" s="109"/>
+      <c r="AT8" s="110"/>
       <c r="AU8" s="51"/>
       <c r="AV8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AW8" s="115" t="str">
+      <c r="AW8" s="104" t="str">
         <f>$M$10</f>
         <v xml:space="preserve">      8 lbs/1 CRX</v>
       </c>
-      <c r="AX8" s="115" t="str">
+      <c r="AX8" s="104" t="str">
         <f>$M$11</f>
         <v xml:space="preserve">       14 lbs/1 CRX</v>
       </c>
-      <c r="AY8" s="115" t="str">
+      <c r="AY8" s="104" t="str">
         <f>$M$12</f>
         <v xml:space="preserve">        16lbs/1CRT</v>
       </c>
-      <c r="AZ8" s="115" t="str">
+      <c r="AZ8" s="104" t="str">
         <f>$M$13</f>
         <v xml:space="preserve">22/1CRT </v>
       </c>
-      <c r="BA8" s="115">
+      <c r="BA8" s="104">
         <f>$M$14</f>
         <v>0</v>
       </c>
-      <c r="BB8" s="113">
+      <c r="BB8" s="107">
         <f>$M$15</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="113">
+      <c r="BC8" s="107">
         <f>$M$16</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="115">
+      <c r="BD8" s="104">
         <f>$M$17</f>
         <v>0</v>
       </c>
@@ -6499,7 +6030,7 @@
         <v>26</v>
       </c>
       <c r="L9" s="51"/>
-      <c r="M9" s="107"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="54" t="s">
         <v>31</v>
       </c>
@@ -6545,9 +6076,9 @@
       <c r="AB9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
       <c r="AF9" s="51"/>
       <c r="AG9" s="62"/>
       <c r="AH9" s="61" t="s">
@@ -6585,14 +6116,14 @@
       <c r="AV9" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="107"/>
-      <c r="BA9" s="107"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
     </row>
     <row r="10" spans="1:57" s="56" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
@@ -8069,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="51"/>
-      <c r="AG21" s="114" t="s">
+      <c r="AG21" s="106" t="s">
         <v>7</v>
       </c>
       <c r="AH21" s="97"/>
@@ -8079,7 +7610,7 @@
         <v>51</v>
       </c>
       <c r="AK21" s="51"/>
-      <c r="AL21" s="114" t="s">
+      <c r="AL21" s="106" t="s">
         <v>7</v>
       </c>
       <c r="AM21" s="97"/>
@@ -8089,7 +7620,7 @@
         <v>33</v>
       </c>
       <c r="AP21" s="51"/>
-      <c r="AQ21" s="114" t="s">
+      <c r="AQ21" s="106" t="s">
         <v>7</v>
       </c>
       <c r="AR21" s="97"/>
@@ -8171,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="51"/>
-      <c r="AG22" s="114" t="s">
+      <c r="AG22" s="106" t="s">
         <v>79</v>
       </c>
       <c r="AH22" s="97"/>
@@ -8181,7 +7712,7 @@
         <v>1.0057584602035181</v>
       </c>
       <c r="AK22" s="51"/>
-      <c r="AL22" s="114" t="s">
+      <c r="AL22" s="106" t="s">
         <v>79</v>
       </c>
       <c r="AM22" s="97"/>
@@ -8191,7 +7722,7 @@
         <v>0.65078488601404116</v>
       </c>
       <c r="AP22" s="51"/>
-      <c r="AQ22" s="114" t="s">
+      <c r="AQ22" s="106" t="s">
         <v>79</v>
       </c>
       <c r="AR22" s="97"/>
@@ -19120,20 +18651,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="AQ21:AS21"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AL22:AN22"/>
-    <mergeCell ref="AQ22:AS22"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AQ8:AT8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="M7:AT7"/>
@@ -19150,6 +18667,20 @@
     <mergeCell ref="AG8:AJ8"/>
     <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AL22:AN22"/>
+    <mergeCell ref="AQ22:AS22"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AQ21:AS21"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -19159,10 +18690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19228,25 +18759,25 @@
         <v>86</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4">
-        <v>21.17</v>
+        <v>23.05</v>
       </c>
       <c r="H4" t="s">
         <v>86</v>
       </c>
       <c r="I4">
-        <v>2.64</v>
+        <v>4.28</v>
       </c>
       <c r="K4" t="s">
         <v>86</v>
       </c>
       <c r="L4">
-        <v>22.74</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
@@ -19254,25 +18785,25 @@
         <v>87</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5">
-        <v>28.92</v>
+        <v>30.16</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
       </c>
       <c r="I5">
-        <v>3.92</v>
+        <v>4.38</v>
       </c>
       <c r="K5" t="s">
         <v>87</v>
       </c>
       <c r="L5">
-        <v>25.28</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -19280,25 +18811,25 @@
         <v>88</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
       <c r="F6">
-        <v>25.77</v>
+        <v>20.73</v>
       </c>
       <c r="H6" t="s">
         <v>88</v>
       </c>
       <c r="I6">
-        <v>2.95</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
       </c>
       <c r="L6">
-        <v>21.23</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -19306,25 +18837,25 @@
         <v>89</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
       <c r="F7">
-        <v>23.05</v>
+        <v>29.77</v>
       </c>
       <c r="H7" t="s">
         <v>89</v>
       </c>
       <c r="I7">
-        <v>4.28</v>
+        <v>2.71</v>
       </c>
       <c r="K7" t="s">
         <v>89</v>
       </c>
       <c r="L7">
-        <v>24.15</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -19332,25 +18863,25 @@
         <v>90</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8">
-        <v>30.16</v>
+        <v>25.98</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
       </c>
       <c r="I8">
-        <v>4.38</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="s">
         <v>90</v>
       </c>
       <c r="L8">
-        <v>24.6</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -19358,25 +18889,25 @@
         <v>91</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
       </c>
       <c r="F9">
-        <v>20.73</v>
+        <v>94.93</v>
       </c>
       <c r="H9" t="s">
         <v>91</v>
       </c>
       <c r="I9">
-        <v>4.3899999999999997</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K9" t="s">
         <v>91</v>
       </c>
       <c r="L9">
-        <v>23.72</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -19384,25 +18915,25 @@
         <v>92</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
       </c>
       <c r="F10">
-        <v>29.77</v>
+        <v>58.44</v>
       </c>
       <c r="H10" t="s">
         <v>92</v>
       </c>
       <c r="I10">
-        <v>2.71</v>
+        <v>0.62</v>
       </c>
       <c r="K10" t="s">
         <v>92</v>
       </c>
       <c r="L10">
-        <v>23.04</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -19410,25 +18941,25 @@
         <v>93</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E11" t="s">
         <v>93</v>
       </c>
       <c r="F11">
-        <v>25.98</v>
+        <v>63.51</v>
       </c>
       <c r="H11" t="s">
         <v>93</v>
       </c>
       <c r="I11">
-        <v>2.85</v>
+        <v>1.3</v>
       </c>
       <c r="K11" t="s">
         <v>93</v>
       </c>
       <c r="L11">
-        <v>22.19</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -19436,25 +18967,25 @@
         <v>94</v>
       </c>
       <c r="C12">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="E12" t="s">
         <v>94</v>
       </c>
       <c r="F12">
-        <v>94.93</v>
+        <v>64.02</v>
       </c>
       <c r="H12" t="s">
         <v>94</v>
       </c>
       <c r="I12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.65</v>
       </c>
       <c r="K12" t="s">
         <v>94</v>
       </c>
       <c r="L12">
-        <v>27.22</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -19468,19 +18999,19 @@
         <v>95</v>
       </c>
       <c r="F13">
-        <v>58.44</v>
+        <v>63.32</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
       </c>
       <c r="I13">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="K13" t="s">
         <v>95</v>
       </c>
       <c r="L13">
-        <v>22.38</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -19488,25 +19019,25 @@
         <v>96</v>
       </c>
       <c r="C14">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E14" t="s">
         <v>96</v>
       </c>
       <c r="F14">
-        <v>63.51</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H14" t="s">
         <v>96</v>
       </c>
       <c r="I14">
-        <v>1.3</v>
+        <v>3.58</v>
       </c>
       <c r="K14" t="s">
         <v>96</v>
       </c>
       <c r="L14">
-        <v>27.59</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -19514,25 +19045,25 @@
         <v>97</v>
       </c>
       <c r="C15">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E15" t="s">
         <v>97</v>
       </c>
       <c r="F15">
-        <v>64.02</v>
+        <v>32.65</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
       </c>
       <c r="I15">
-        <v>0.65</v>
+        <v>1.71</v>
       </c>
       <c r="K15" t="s">
         <v>97</v>
       </c>
       <c r="L15">
-        <v>21.9</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -19540,25 +19071,25 @@
         <v>98</v>
       </c>
       <c r="C16">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
       <c r="F16">
-        <v>63.32</v>
+        <v>24.11</v>
       </c>
       <c r="H16" t="s">
         <v>98</v>
       </c>
       <c r="I16">
-        <v>0.53</v>
+        <v>4.99</v>
       </c>
       <c r="K16" t="s">
         <v>98</v>
       </c>
       <c r="L16">
-        <v>21.97</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -19566,25 +19097,25 @@
         <v>99</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E17" t="s">
         <v>99</v>
       </c>
       <c r="F17">
-        <v>34.799999999999997</v>
+        <v>34.94</v>
       </c>
       <c r="H17" t="s">
         <v>99</v>
       </c>
       <c r="I17">
-        <v>3.58</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K17" t="s">
         <v>99</v>
       </c>
       <c r="L17">
-        <v>26.15</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -19592,84 +19123,24 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="s">
         <v>100</v>
       </c>
       <c r="F18">
-        <v>32.65</v>
+        <v>28.81</v>
       </c>
       <c r="H18" t="s">
         <v>100</v>
       </c>
       <c r="I18">
-        <v>1.71</v>
+        <v>3.47</v>
       </c>
       <c r="K18" t="s">
         <v>100</v>
       </c>
       <c r="L18">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19">
-        <v>3.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19">
-        <v>28.81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20">
-        <v>3.5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20">
-        <v>28.81</v>
-      </c>
-      <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21">
-        <v>3.5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21">
-        <v>28.81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21">
-        <v>3.47</v>
-      </c>
-      <c r="K21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21">
         <v>24.76</v>
       </c>
     </row>
@@ -19689,7 +19160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -19703,13 +19174,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -19761,7 +19232,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>77.81</v>
@@ -19772,7 +19243,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>21.86</v>
@@ -19783,7 +19254,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>57.09</v>
@@ -19794,7 +19265,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>41.3</v>
@@ -19805,7 +19276,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>80.31</v>
@@ -19816,7 +19287,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>72</v>
@@ -19827,7 +19298,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>42.31</v>
@@ -19849,7 +19320,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>15.57</v>
@@ -19860,7 +19331,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>25.03</v>
@@ -19871,7 +19342,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>53.15</v>
@@ -19882,7 +19353,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>47.57</v>
@@ -19893,7 +19364,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>53.04</v>
@@ -19904,7 +19375,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>46.22</v>
@@ -19915,7 +19386,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>64.42</v>
@@ -19926,7 +19397,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>66.599999999999994</v>
@@ -19948,7 +19419,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>35.22</v>
@@ -19959,7 +19430,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>66.95</v>
@@ -19970,7 +19441,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>55.13</v>
@@ -19981,7 +19452,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>25.11</v>
@@ -19992,7 +19463,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>46.65</v>
@@ -20003,7 +19474,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>24.35</v>
@@ -20025,7 +19496,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>32.79</v>
@@ -20036,7 +19507,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>67.349999999999994</v>
@@ -20096,53 +19567,53 @@
   <sheetData>
     <row r="2" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20150,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
@@ -20203,7 +19674,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -20254,7 +19725,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -20305,7 +19776,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -20356,7 +19827,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="3">
         <v>14</v>
@@ -20409,7 +19880,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3">
         <v>14</v>
@@ -20462,7 +19933,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -20513,7 +19984,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -20564,7 +20035,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="3">
         <v>16</v>
@@ -20617,7 +20088,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
@@ -20670,7 +20141,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3">
         <v>16</v>
@@ -20723,7 +20194,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3">
         <v>16</v>
@@ -20776,7 +20247,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3">
         <v>22</v>
@@ -20829,7 +20300,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3">
         <v>22</v>
@@ -20882,7 +20353,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3">
         <v>22</v>
@@ -20935,7 +20406,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3">
         <v>22</v>
@@ -20988,7 +20459,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3">
         <v>22</v>
@@ -21041,7 +20512,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3">
         <v>22</v>
@@ -21094,7 +20565,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3">
         <v>16</v>
@@ -21147,7 +20618,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -21200,7 +20671,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -21253,7 +20724,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3">
         <v>16</v>
@@ -21306,7 +20777,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -21359,7 +20830,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3">
         <v>16</v>
@@ -21412,7 +20883,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="3">
         <v>16</v>
@@ -21465,7 +20936,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3">
         <v>16</v>
@@ -21518,7 +20989,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="3">
         <v>16</v>
@@ -21571,7 +21042,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="3">
         <v>16</v>
@@ -21621,10 +21092,10 @@
     </row>
     <row r="31" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
@@ -21677,7 +21148,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3">
         <v>16</v>
@@ -21730,7 +21201,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3">
         <v>8</v>
@@ -21783,7 +21254,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
@@ -21893,31 +21364,31 @@
   <sheetData>
     <row r="2" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -21925,7 +21396,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="34">
         <v>0</v>
@@ -21955,7 +21426,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="34">
         <v>0</v>
@@ -21985,7 +21456,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="34">
         <v>10.63</v>
@@ -22000,14 +21471,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>4.0999999999999996</v>
+        <v>6.1499999999999986</v>
       </c>
       <c r="I5" s="3">
         <v>1.389</v>
       </c>
       <c r="J5" s="36">
         <f t="shared" si="0"/>
-        <v>5.6948999999999996</v>
+        <v>8.5423499999999972</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22015,7 +21486,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="34">
         <v>77.81</v>
@@ -22030,14 +21501,14 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>32.74</v>
+        <v>49.11</v>
       </c>
       <c r="I6" s="3">
         <v>1.9530000000000001</v>
       </c>
       <c r="J6" s="36">
         <f t="shared" si="0"/>
-        <v>63.941220000000008</v>
+        <v>95.911830000000009</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22045,7 +21516,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="34">
         <v>21.86</v>
@@ -22060,14 +21531,14 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>8.52</v>
+        <v>12.78</v>
       </c>
       <c r="I7" s="3">
         <v>1.204</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" si="0"/>
-        <v>10.25808</v>
+        <v>15.387119999999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22075,7 +21546,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="34">
         <v>57.09</v>
@@ -22090,14 +21561,14 @@
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>23.48</v>
+        <v>35.22</v>
       </c>
       <c r="I8" s="3">
         <v>1.204</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="0"/>
-        <v>28.269919999999999</v>
+        <v>42.404879999999999</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22105,7 +21576,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="34">
         <v>41.3</v>
@@ -22120,14 +21591,14 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>16.920000000000002</v>
+        <v>25.38</v>
       </c>
       <c r="I9" s="3">
         <v>1.389</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" si="0"/>
-        <v>23.501880000000003</v>
+        <v>35.25282</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22135,7 +21606,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="34">
         <v>80.31</v>
@@ -22150,14 +21621,14 @@
         <v>12</v>
       </c>
       <c r="H10" s="3">
-        <v>35.200000000000003</v>
+        <v>52.8</v>
       </c>
       <c r="I10" s="3">
         <v>1.389</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="0"/>
-        <v>48.892800000000001</v>
+        <v>73.339199999999991</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22165,7 +21636,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="34">
         <v>72</v>
@@ -22180,14 +21651,14 @@
         <v>33</v>
       </c>
       <c r="H11" s="3">
-        <v>37.58</v>
+        <v>56.37</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" si="0"/>
-        <v>37.58</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22195,7 +21666,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="34">
         <v>42.31</v>
@@ -22210,14 +21681,14 @@
         <v>34</v>
       </c>
       <c r="H12" s="3">
-        <v>20.48</v>
+        <v>30.72</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" si="0"/>
-        <v>20.48</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22225,7 +21696,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="34">
         <v>0</v>
@@ -22255,7 +21726,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="34">
         <v>15.57</v>
@@ -22270,14 +21741,14 @@
         <v>34</v>
       </c>
       <c r="H14" s="3">
-        <v>13.46</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" si="0"/>
-        <v>13.46</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="M14" s="30"/>
     </row>
@@ -22286,7 +21757,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="34">
         <v>25.03</v>
@@ -22301,14 +21772,14 @@
         <v>55</v>
       </c>
       <c r="H15" s="3">
-        <v>24.78</v>
+        <v>37.17</v>
       </c>
       <c r="I15" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" si="0"/>
-        <v>17.544239999999999</v>
+        <v>26.31636</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22316,7 +21787,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="34">
         <v>53.15</v>
@@ -22331,14 +21802,14 @@
         <v>49</v>
       </c>
       <c r="H16" s="3">
-        <v>33.200000000000003</v>
+        <v>49.8</v>
       </c>
       <c r="I16" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J16" s="36">
         <f t="shared" si="0"/>
-        <v>23.505600000000001</v>
+        <v>35.258399999999995</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22346,7 +21817,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="34">
         <v>47.57</v>
@@ -22361,14 +21832,14 @@
         <v>57</v>
       </c>
       <c r="H17" s="3">
-        <v>28.52</v>
+        <v>42.78</v>
       </c>
       <c r="I17" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J17" s="36">
         <f t="shared" si="0"/>
-        <v>20.192159999999998</v>
+        <v>30.288239999999998</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22376,7 +21847,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3">
         <v>53.04</v>
@@ -22391,14 +21862,14 @@
         <v>54</v>
       </c>
       <c r="H18" s="3">
-        <v>30.86</v>
+        <v>46.29</v>
       </c>
       <c r="I18" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="0"/>
-        <v>21.848879999999998</v>
+        <v>32.773319999999998</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22406,7 +21877,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="34">
         <v>46.22</v>
@@ -22421,14 +21892,14 @@
         <v>42</v>
       </c>
       <c r="H19" s="3">
-        <v>27.68</v>
+        <v>41.52</v>
       </c>
       <c r="I19" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J19" s="36">
         <f t="shared" si="0"/>
-        <v>19.597439999999999</v>
+        <v>29.396160000000002</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22436,7 +21907,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="34">
         <v>64.42</v>
@@ -22451,14 +21922,14 @@
         <v>56</v>
       </c>
       <c r="H20" s="3">
-        <v>41.18</v>
+        <v>61.77</v>
       </c>
       <c r="I20" s="3">
         <v>0.70799999999999996</v>
       </c>
       <c r="J20" s="36">
         <f t="shared" si="0"/>
-        <v>29.155439999999999</v>
+        <v>43.733159999999998</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22466,7 +21937,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="34">
         <v>66.599999999999994</v>
@@ -22481,14 +21952,14 @@
         <v>37</v>
       </c>
       <c r="H21" s="3">
-        <v>27.8</v>
+        <v>41.7</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="36">
         <f t="shared" si="0"/>
-        <v>27.8</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22496,7 +21967,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="34">
         <v>0</v>
@@ -22526,7 +21997,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="34">
         <v>35.22</v>
@@ -22541,14 +22012,14 @@
         <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>15.24</v>
+        <v>22.86</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" si="0"/>
-        <v>15.24</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22556,7 +22027,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="34">
         <v>66.95</v>
@@ -22571,14 +22042,14 @@
         <v>37</v>
       </c>
       <c r="H24" s="3">
-        <v>33.799999999999997</v>
+        <v>50.7</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" si="0"/>
-        <v>33.799999999999997</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22586,7 +22057,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="34">
         <v>55.13</v>
@@ -22601,14 +22072,14 @@
         <v>36</v>
       </c>
       <c r="H25" s="3">
-        <v>27.56</v>
+        <v>41.34</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" si="0"/>
-        <v>27.56</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22616,7 +22087,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="34">
         <v>25.11</v>
@@ -22631,14 +22102,14 @@
         <v>38</v>
       </c>
       <c r="H26" s="3">
-        <v>12.42</v>
+        <v>18.63</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" si="0"/>
-        <v>12.42</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22646,7 +22117,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="34">
         <v>46.65</v>
@@ -22661,14 +22132,14 @@
         <v>36</v>
       </c>
       <c r="H27" s="3">
-        <v>23.56</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" si="0"/>
-        <v>23.56</v>
+        <v>35.340000000000003</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22676,7 +22147,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="34">
         <v>24.35</v>
@@ -22691,14 +22162,14 @@
         <v>20</v>
       </c>
       <c r="H28" s="3">
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22706,7 +22177,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="34">
         <v>0</v>
@@ -22736,7 +22207,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="34">
         <v>32.79</v>
@@ -22751,22 +22222,22 @@
         <v>33</v>
       </c>
       <c r="H30" s="3">
-        <v>17.579999999999998</v>
+        <v>26.37</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" si="0"/>
-        <v>17.579999999999998</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="34">
         <v>67.349999999999994</v>
@@ -22781,14 +22252,14 @@
         <v>25</v>
       </c>
       <c r="H31" s="3">
-        <v>36.72</v>
+        <v>55.08</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="36">
         <f t="shared" si="0"/>
-        <v>36.72</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -22796,7 +22267,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -22826,7 +22297,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="34">
         <v>0</v>
@@ -22856,7 +22327,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
